--- a/datasets/resultado_correlacao.xlsx
+++ b/datasets/resultado_correlacao.xlsx
@@ -475,10 +475,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.08391608391608392</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7954145018538977</v>
+        <v>0.6893090205863619</v>
       </c>
     </row>
     <row r="3">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.252653463179779</v>
+        <v>0.2676962676962677</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1259219371995273</v>
+        <v>0.1144610211151944</v>
       </c>
     </row>
     <row r="4">
@@ -517,10 +517,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.4276923076923076</v>
+        <v>0.4209486166007905</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03295242349360076</v>
+        <v>0.04547120480280356</v>
       </c>
     </row>
     <row r="5">
@@ -538,10 +538,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-0.4833333333333333</v>
+        <v>-0.5000000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1874698552155421</v>
+        <v>0.20703125</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.6785714285714287</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0937502539598313</v>
+        <v>0.07239650145772594</v>
       </c>
     </row>
     <row r="7">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.4140350877192982</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="E7" t="n">
-        <v>0.07801949398456286</v>
+        <v>0.06032623578568472</v>
       </c>
     </row>
     <row r="8">
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.2027972027972028</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5273023541661082</v>
+        <v>0.5926152128455</v>
       </c>
     </row>
     <row r="9">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.1911587701061385</v>
+        <v>0.2272844272844273</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2502847844795364</v>
+        <v>0.1824978117098565</v>
       </c>
     </row>
     <row r="10">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.4053846153846154</v>
+        <v>0.3893280632411067</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0443877584152009</v>
+        <v>0.06632062116006986</v>
       </c>
     </row>
     <row r="11">
@@ -664,10 +664,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>-0.4833333333333333</v>
+        <v>-0.5000000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1874698552155421</v>
+        <v>0.20703125</v>
       </c>
     </row>
     <row r="12">
@@ -685,10 +685,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.6785714285714287</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0937502539598313</v>
+        <v>0.07239650145772594</v>
       </c>
     </row>
     <row r="13">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.4140350877192982</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="E13" t="n">
-        <v>0.07801949398456286</v>
+        <v>0.06032623578568472</v>
       </c>
     </row>
     <row r="14">
@@ -727,10 +727,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.2237762237762238</v>
+        <v>0.2181818181818182</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4844516614553989</v>
+        <v>0.519248247554982</v>
       </c>
     </row>
     <row r="15">
@@ -748,10 +748,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.149578728526097</v>
+        <v>0.1552123552123552</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3700814646919479</v>
+        <v>0.3660469538335063</v>
       </c>
     </row>
     <row r="16">
@@ -769,10 +769,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.4</v>
+        <v>0.4189723320158103</v>
       </c>
       <c r="E16" t="n">
-        <v>0.04756800106987493</v>
+        <v>0.04660153881127199</v>
       </c>
     </row>
     <row r="17">
@@ -790,10 +790,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-0.4833333333333333</v>
+        <v>-0.5000000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1874698552155421</v>
+        <v>0.20703125</v>
       </c>
     </row>
     <row r="18">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.6785714285714287</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0937502539598313</v>
+        <v>0.07239650145772594</v>
       </c>
     </row>
     <row r="19">
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.4140350877192982</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="E19" t="n">
-        <v>0.07801949398456286</v>
+        <v>0.06032623578568472</v>
       </c>
     </row>
     <row r="20">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.2377622377622378</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4568008526399232</v>
+        <v>0.501535667604937</v>
       </c>
     </row>
     <row r="21">
@@ -874,10 +874,10 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.09377393587919904</v>
+        <v>0.1158301158301158</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5754879372913647</v>
+        <v>0.5011231999211077</v>
       </c>
     </row>
     <row r="22">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.3776923076923077</v>
+        <v>0.3784584980237154</v>
       </c>
       <c r="E22" t="n">
-        <v>0.06268687606793104</v>
+        <v>0.07495820299718052</v>
       </c>
     </row>
     <row r="23">
@@ -916,10 +916,10 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>-0.4833333333333333</v>
+        <v>-0.5000000000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1874698552155421</v>
+        <v>0.20703125</v>
       </c>
     </row>
     <row r="24">
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.6785714285714287</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0937502539598313</v>
+        <v>0.07239650145772594</v>
       </c>
     </row>
     <row r="25">
@@ -958,10 +958,10 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.4140350877192982</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="E25" t="n">
-        <v>0.07801949398456286</v>
+        <v>0.06032623578568472</v>
       </c>
     </row>
     <row r="26">
@@ -979,10 +979,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.2090909090909091</v>
       </c>
       <c r="E26" t="n">
-        <v>0.470531995381542</v>
+        <v>0.5372209352113229</v>
       </c>
     </row>
     <row r="27">
@@ -1000,10 +1000,10 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.05066199803041908</v>
+        <v>0.07413127413127413</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7626039798500421</v>
+        <v>0.6674266915157008</v>
       </c>
     </row>
     <row r="28">
@@ -1021,10 +1021,10 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.3923076923076923</v>
+        <v>0.3853754940711462</v>
       </c>
       <c r="E28" t="n">
-        <v>0.05241792334601506</v>
+        <v>0.06936888423715426</v>
       </c>
     </row>
     <row r="29">
@@ -1042,10 +1042,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>-0.4833333333333333</v>
+        <v>-0.5000000000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1874698552155421</v>
+        <v>0.20703125</v>
       </c>
     </row>
     <row r="30">
@@ -1063,10 +1063,10 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.6785714285714287</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0937502539598313</v>
+        <v>0.07239650145772594</v>
       </c>
     </row>
     <row r="31">
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.4140350877192982</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="E31" t="n">
-        <v>0.07801949398456286</v>
+        <v>0.06032623578568472</v>
       </c>
     </row>
     <row r="32">
@@ -1105,10 +1105,10 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.2867132867132868</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3662514605835823</v>
+        <v>0.3550284397015071</v>
       </c>
     </row>
     <row r="33">
@@ -1126,10 +1126,10 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.003392056023634971</v>
+        <v>0.0332046332046332</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9838746011198517</v>
+        <v>0.8475467370962678</v>
       </c>
     </row>
     <row r="34">
@@ -1147,10 +1147,10 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.363076923076923</v>
+        <v>0.3567193675889328</v>
       </c>
       <c r="E34" t="n">
-        <v>0.07444186246005682</v>
+        <v>0.09475100941564729</v>
       </c>
     </row>
     <row r="35">
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>-0.4833333333333333</v>
+        <v>-0.5000000000000001</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1874698552155421</v>
+        <v>0.20703125</v>
       </c>
     </row>
     <row r="36">
@@ -1189,10 +1189,10 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.6785714285714287</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0937502539598313</v>
+        <v>0.07239650145772594</v>
       </c>
     </row>
     <row r="37">
@@ -1210,10 +1210,10 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.4140350877192982</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="E37" t="n">
-        <v>0.07801949398456286</v>
+        <v>0.06032623578568472</v>
       </c>
     </row>
   </sheetData>
